--- a/excels/Swansea.xlsx
+++ b/excels/Swansea.xlsx
@@ -2605,7 +2605,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>1910.684523386712</v>
@@ -2634,7 +2634,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>1910.684523386712</v>
@@ -2663,7 +2663,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>1910.684523386712</v>
@@ -2692,7 +2692,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>1742.733591902255</v>
@@ -2721,7 +2721,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>2023.126002046325</v>
@@ -2750,7 +2750,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>2113.855963047571</v>
@@ -2779,7 +2779,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>2660.648734249341</v>
@@ -2808,7 +2808,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>1751.834208193017</v>
@@ -2837,7 +2837,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>1751.834208193017</v>
@@ -2866,7 +2866,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>1751.834208193017</v>
@@ -2895,7 +2895,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>3308.961498127367</v>
@@ -2924,7 +2924,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>2682.851497589479</v>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>2682.851497589479</v>
@@ -2982,7 +2982,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>1580.6280623239</v>
@@ -3011,7 +3011,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>2282.605801945969</v>
@@ -3040,7 +3040,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>1580.6280623239</v>
@@ -3069,7 +3069,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>2506.338215187347</v>
@@ -3098,7 +3098,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>1580.6280623239</v>
@@ -3127,7 +3127,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>1580.6280623239</v>
@@ -3156,7 +3156,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>2432.725088618285</v>
@@ -3185,7 +3185,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>2432.725088618285</v>
@@ -3214,7 +3214,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>3258.35049888997</v>
@@ -3243,7 +3243,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>1937.815833189049</v>
@@ -3272,7 +3272,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>1808.073892539471</v>
@@ -3301,7 +3301,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>1937.815833189049</v>
@@ -3330,7 +3330,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>1808.073892539471</v>
@@ -3359,7 +3359,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="1">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>2052.056075228534</v>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="1">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>1560.242207663292</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="1">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>1472.642048838594</v>
@@ -3446,7 +3446,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="1">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>2161.44896227475</v>
@@ -3475,7 +3475,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="1">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>2072.195323235508</v>
@@ -3504,7 +3504,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>1989.549989921131</v>
@@ -3533,7 +3533,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="1">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>1568.624771998989</v>
@@ -3562,7 +3562,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="1">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>1456.500893388922</v>
@@ -3591,7 +3591,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>2464.016045320642</v>
@@ -3620,7 +3620,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="1">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>2279.841358016611</v>
@@ -3649,7 +3649,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="1">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>1456.500893388922</v>
@@ -3678,7 +3678,7 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="1">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>1456.500893388922</v>
@@ -3707,7 +3707,7 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>1456.500893388922</v>
@@ -3736,7 +3736,7 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>1456.500893388922</v>
@@ -3765,7 +3765,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>2464.016045320642</v>
@@ -3794,7 +3794,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>1456.500893388922</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>1456.500893388922</v>
@@ -3852,7 +3852,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>1456.500893388922</v>
@@ -3881,7 +3881,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>2949.72602739726</v>
@@ -3910,7 +3910,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>1805.909520911376</v>
@@ -3939,7 +3939,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>2949.72602739726</v>
@@ -3968,7 +3968,7 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>4535.111649205714</v>
@@ -3997,7 +3997,7 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>2949.72602739726</v>
@@ -4026,7 +4026,7 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1">
-        <v>130</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>3302.111359545918</v>
@@ -4055,7 +4055,7 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>2184.216795711734</v>
@@ -4084,7 +4084,7 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1">
-        <v>152</v>
+        <v>59</v>
       </c>
       <c r="B61">
         <v>2984.090530077428</v>
@@ -4113,7 +4113,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1">
-        <v>157</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>2007.580434429491</v>
@@ -4142,7 +4142,7 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1">
-        <v>158</v>
+        <v>61</v>
       </c>
       <c r="B63">
         <v>1727.682826230281</v>
@@ -4171,7 +4171,7 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1">
-        <v>163</v>
+        <v>62</v>
       </c>
       <c r="B64">
         <v>2984.090530077428</v>
@@ -4200,7 +4200,7 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1">
-        <v>172</v>
+        <v>63</v>
       </c>
       <c r="B65">
         <v>2984.090530077428</v>
@@ -4229,7 +4229,7 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="1">
-        <v>176</v>
+        <v>64</v>
       </c>
       <c r="B66">
         <v>1727.682826230281</v>
@@ -4258,7 +4258,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="1">
-        <v>177</v>
+        <v>65</v>
       </c>
       <c r="B67">
         <v>2184.216795711734</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="1">
-        <v>180</v>
+        <v>66</v>
       </c>
       <c r="B68">
         <v>1727.682826230281</v>
@@ -4316,7 +4316,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="1">
-        <v>181</v>
+        <v>67</v>
       </c>
       <c r="B69">
         <v>1306.589457972857</v>
@@ -4345,7 +4345,7 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="1">
-        <v>183</v>
+        <v>68</v>
       </c>
       <c r="B70">
         <v>3941.774865991662</v>
@@ -4374,7 +4374,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="1">
-        <v>185</v>
+        <v>69</v>
       </c>
       <c r="B71">
         <v>1727.682826230281</v>
@@ -4403,7 +4403,7 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="1">
-        <v>186</v>
+        <v>70</v>
       </c>
       <c r="B72">
         <v>1727.682826230281</v>
@@ -4432,7 +4432,7 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="1">
-        <v>187</v>
+        <v>71</v>
       </c>
       <c r="B73">
         <v>2643.424116086415</v>
@@ -4461,7 +4461,7 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="1">
-        <v>189</v>
+        <v>72</v>
       </c>
       <c r="B74">
         <v>2984.090530077428</v>
@@ -4490,7 +4490,7 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="1">
-        <v>190</v>
+        <v>73</v>
       </c>
       <c r="B75">
         <v>1306.589457972857</v>
@@ -4519,7 +4519,7 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="1">
-        <v>191</v>
+        <v>74</v>
       </c>
       <c r="B76">
         <v>1306.589457972857</v>
@@ -4548,7 +4548,7 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="1">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="B77">
         <v>1306.589457972857</v>
@@ -4577,7 +4577,7 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="1">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c r="B78">
         <v>1306.589457972857</v>
@@ -4606,7 +4606,7 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="1">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="B79">
         <v>2184.216795711734</v>
@@ -4635,7 +4635,7 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="1">
-        <v>195</v>
+        <v>78</v>
       </c>
       <c r="B80">
         <v>1306.589457972857</v>
@@ -4664,7 +4664,7 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="1">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="B81">
         <v>2184.216795711734</v>
@@ -4693,7 +4693,7 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="1">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="B82">
         <v>1727.682826230281</v>
@@ -4722,7 +4722,7 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="1">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c r="B83">
         <v>2984.090530077428</v>
@@ -4751,7 +4751,7 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="1">
-        <v>201</v>
+        <v>82</v>
       </c>
       <c r="B84">
         <v>2984.090530077428</v>
@@ -4780,7 +4780,7 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="1">
-        <v>203</v>
+        <v>83</v>
       </c>
       <c r="B85">
         <v>1306.589457972857</v>
@@ -4809,7 +4809,7 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="1">
-        <v>204</v>
+        <v>84</v>
       </c>
       <c r="B86">
         <v>1306.589457972857</v>
@@ -4838,7 +4838,7 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="1">
-        <v>205</v>
+        <v>85</v>
       </c>
       <c r="B87">
         <v>2184.216795711734</v>
@@ -4867,7 +4867,7 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="1">
-        <v>214</v>
+        <v>86</v>
       </c>
       <c r="B88">
         <v>2043.502084574151</v>
@@ -4896,7 +4896,7 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="1">
-        <v>218</v>
+        <v>87</v>
       </c>
       <c r="B89">
         <v>2043.502084574151</v>
@@ -4925,7 +4925,7 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="1">
-        <v>219</v>
+        <v>88</v>
       </c>
       <c r="B90">
         <v>2043.502084574151</v>
@@ -4954,7 +4954,7 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="1">
-        <v>221</v>
+        <v>89</v>
       </c>
       <c r="B91">
         <v>2043.502084574151</v>
@@ -4983,7 +4983,7 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="1">
-        <v>223</v>
+        <v>90</v>
       </c>
       <c r="B92">
         <v>1578.439547349613</v>
@@ -5012,7 +5012,7 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="1">
-        <v>226</v>
+        <v>91</v>
       </c>
       <c r="B93">
         <v>2043.502084574151</v>
@@ -5041,7 +5041,7 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="1">
-        <v>229</v>
+        <v>92</v>
       </c>
       <c r="B94">
         <v>2111.298627002289</v>
@@ -5070,7 +5070,7 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="1">
-        <v>230</v>
+        <v>93</v>
       </c>
       <c r="B95">
         <v>3301.706623323852</v>
@@ -5099,7 +5099,7 @@
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="1">
-        <v>231</v>
+        <v>94</v>
       </c>
       <c r="B96">
         <v>2043.502084574151</v>
@@ -5128,7 +5128,7 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="1">
-        <v>232</v>
+        <v>95</v>
       </c>
       <c r="B97">
         <v>2111.298627002289</v>
@@ -5157,7 +5157,7 @@
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="1">
-        <v>233</v>
+        <v>96</v>
       </c>
       <c r="B98">
         <v>2043.502084574151</v>
@@ -5186,7 +5186,7 @@
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="1">
-        <v>234</v>
+        <v>97</v>
       </c>
       <c r="B99">
         <v>1751.834208193017</v>
@@ -5215,7 +5215,7 @@
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="1">
-        <v>235</v>
+        <v>98</v>
       </c>
       <c r="B100">
         <v>2234.343471797722</v>
@@ -5244,7 +5244,7 @@
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="1">
-        <v>236</v>
+        <v>99</v>
       </c>
       <c r="B101">
         <v>2403.534317058329</v>
@@ -5273,7 +5273,7 @@
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="1">
-        <v>237</v>
+        <v>100</v>
       </c>
       <c r="B102">
         <v>2717.724070047091</v>
@@ -5302,7 +5302,7 @@
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="1">
-        <v>238</v>
+        <v>101</v>
       </c>
       <c r="B103">
         <v>1869.309343870176</v>
@@ -5331,7 +5331,7 @@
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="1">
-        <v>239</v>
+        <v>102</v>
       </c>
       <c r="B104">
         <v>2164.46763424344</v>
@@ -5360,7 +5360,7 @@
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="1">
-        <v>240</v>
+        <v>103</v>
       </c>
       <c r="B105">
         <v>1835.190589636689</v>
